--- a/src/product.xlsx
+++ b/src/product.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A89778-63F2-4F87-B471-0D7B0C64619A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="8256" yWindow="1476" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,34 +19,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>商品名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾客姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>顾客电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nova8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lym</t>
+    <t>商品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 玫珂菲（MAKE UP FOR EVER） 全新清晰无痕粉底液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R210 瓷白色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,6 +95,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -141,7 +145,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -174,9 +178,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,6 +230,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -384,44 +422,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1111</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>3299</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>410</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2">
-        <v>123456789</v>
       </c>
     </row>
   </sheetData>
@@ -432,12 +471,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -445,12 +484,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/product.xlsx
+++ b/src/product.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A89778-63F2-4F87-B471-0D7B0C64619A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6275E1DD-1D1E-46CA-8769-3324B84F9FF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8256" yWindow="1476" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3156" yWindow="1092" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>商品价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,22 @@
   </si>
   <si>
     <t>R210 瓷白色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫珂菲（MAKE UP FOR EVER）绝色大师柔光唇膏 320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">刘雨昕同款 奶霜小黑管 口红半哑光 顺滑滋润唇膏 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,8 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -423,20 +440,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="49.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -450,8 +468,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1111</v>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -461,6 +479,20 @@
       </c>
       <c r="D2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>240</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
